--- a/src/main/resources/static/files/20240318_ETC_EXCEL.xlsx
+++ b/src/main/resources/static/files/20240318_ETC_EXCEL.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -80,34 +80,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경매번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출하자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출하자명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생산자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접수일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낙찰자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구제역백신접종일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,19 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낙찰단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,11 +164,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트명</t>
+    <t>개체번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매대상 구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합원여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관내외구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰자명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,86 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비고1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-암: 1
-수: 2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출하자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매대상 구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출하자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합원여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관내외구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개체번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,36 +249,6 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진행상태</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-송장등록: 11
-경매진행: 21
-낙찰: 22
-보류: 23</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,6 +277,47 @@
 관내: 1
 관외: 2</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+암: 1
+수: 2
+거세: 3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농가식별번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,125 +756,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="17.375" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.625" customWidth="1"/>
-    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="66" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="7"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="6"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
       <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="7"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -939,48 +863,36 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
+      <c r="G2" s="1">
+        <v>20231222</v>
       </c>
       <c r="H2" s="1">
-        <v>20231222</v>
+        <v>555</v>
       </c>
       <c r="I2" s="1">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>20221122</v>
       </c>
       <c r="L2" s="1">
-        <v>555</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>20221122</v>
-      </c>
-      <c r="P2" s="1">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1">
         <v>100000</v>
       </c>
-      <c r="R2" s="1">
-        <v>110000</v>
-      </c>
-      <c r="S2" s="1">
-        <v>110000</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -990,14 +902,8 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1012,12 +918,12 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -1027,14 +933,8 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1049,12 +949,12 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -1064,14 +964,8 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1086,12 +980,12 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -1101,14 +995,8 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1123,12 +1011,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -1138,14 +1026,8 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,102 +1047,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/files/20240318_ETC_EXCEL.xlsx
+++ b/src/main/resources/static/files/20240318_ETC_EXCEL.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출하자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>접수일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
 여: 1
 부: 0</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개체번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,15 +301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>농가식별번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농가명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,36 +744,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.625" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="66" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -793,58 +779,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
+      <c r="P1" s="7"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="7"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W1" s="5"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -852,41 +832,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20231222</v>
+      </c>
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20231222</v>
-      </c>
       <c r="H2" s="1">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>20221122</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
-        <v>20221122</v>
-      </c>
-      <c r="L2" s="1">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1">
         <v>100000</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -900,10 +876,8 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -916,8 +890,8 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -931,10 +905,8 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -947,8 +919,8 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -962,10 +934,8 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -978,8 +948,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -993,10 +963,8 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1009,8 +977,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1024,10 +992,8 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="7" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1047,102 +1013,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
